--- a/MATRIZ - Simplicidad nuevo alcance Reembolsos.xlsx
+++ b/MATRIZ - Simplicidad nuevo alcance Reembolsos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{745FF2DC-D525-47FA-BFA1-709DE424823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB5941-8EDD-4A19-9B3E-09AD59C5512A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato Matriz de Macronivel" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="142">
   <si>
     <t>Macronivel de Pruebas</t>
   </si>
@@ -686,7 +686,40 @@
     <t>Verificar que en la pantalla "VER TRAMITES EN CURSO" en el PORTAL se vea el ESTATUS "SOLICITUD DE INFORMACION"</t>
   </si>
   <si>
-    <t xml:space="preserve">Validar que se vea el la pantalla de"VER TRAMISTES EN CURSO" el ESTATUS "SOLICITUD DE INFORMACION" </t>
+    <t xml:space="preserve">Validar que se vea en el la pantalla de"VER TRAMISTES EN CURSO" el ESTATUS "SOLICITUD DE INFORMACION"  </t>
+  </si>
+  <si>
+    <t>Verificar que en la pantalla "VER TRAMITES EN CURSO" en el APP se vea el ESTATUS "SOLICITUD DE INFORMACION"</t>
+  </si>
+  <si>
+    <t>Verificar que al darle clic, a REGISTRO se despliegue el detalle de la transaccion donde se deberian ver los documentos en APP y PORTAL.</t>
+  </si>
+  <si>
+    <t>Validar que el sistema permita ver los "DOCUMENTOS" al dar clic a REGISTRO en la APP y PORTAL.</t>
+  </si>
+  <si>
+    <t>Validar que se muestre el nuevo ESTILO en el apartado de DOCUMENTOS cuando NO se tienen que ACTUALIZAR en el PORTAL y APP.</t>
+  </si>
+  <si>
+    <t>Verificar si los DOCUMENTOS SI se tienen que ACTUALIZAR se desplieque un FORMULARIO con los campos que se pueden RE-DIGITALIZAR y tambien se despliegue un CHECK en la APP y PORTAL.</t>
+  </si>
+  <si>
+    <t>Verificar si los DOCUMENTOS NO se tienen que ACTUALIZAR se vea la CAJITA del documento de acuerdo al nuevo estilo en APP y PORTAL.</t>
+  </si>
+  <si>
+    <t>Validar que se despliegue un FORMULARIO y un CHECK con los campos que se puede RE-DIGITALIZAR PORTAL y APP.</t>
+  </si>
+  <si>
+    <t>Validar que el sistema permita RE-DIGITALIZAR los FORMATOS APP y PORTAL.</t>
+  </si>
+  <si>
+    <t>Verificar que el sitema permita darle CLIC en el CHECK en la APP Y PORTAL.</t>
+  </si>
+  <si>
+    <t>Verificar que el sitema permita Re-DIGITALIZAR los FORMATOS que si se tendrian que ACTUALIZAR en la APP y PORTAL.</t>
+  </si>
+  <si>
+    <t>Validar que el sistema valide correctamente el CHECK en la APP y PORTAL.</t>
   </si>
 </sst>
 </file>
@@ -1622,9 +1655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T730"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3090,9 +3123,15 @@
     <row r="61" spans="1:20" ht="118.5" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="C61" s="19">
+        <v>3</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="93" t="s">
+        <v>130</v>
+      </c>
       <c r="F61" s="21"/>
       <c r="G61" s="22"/>
       <c r="H61" s="35"/>
@@ -3112,9 +3151,15 @@
     <row r="62" spans="1:20" ht="118.5" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="C62" s="19">
+        <v>4</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="93" t="s">
+        <v>133</v>
+      </c>
       <c r="F62" s="21"/>
       <c r="G62" s="22"/>
       <c r="H62" s="35"/>
@@ -3131,13 +3176,19 @@
       <c r="S62" s="21"/>
       <c r="T62" s="32"/>
     </row>
-    <row r="63" spans="1:20" ht="118.5" customHeight="1">
+    <row r="63" spans="1:20" ht="110.25" customHeight="1">
       <c r="A63" s="25"/>
       <c r="B63" s="26"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
+      <c r="C63" s="19">
+        <v>5</v>
+      </c>
+      <c r="D63" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="93"/>
       <c r="G63" s="22"/>
       <c r="H63" s="35"/>
       <c r="I63" s="21"/>
@@ -3156,9 +3207,15 @@
     <row r="64" spans="1:20" ht="118.5" customHeight="1">
       <c r="A64" s="25"/>
       <c r="B64" s="26"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="C64" s="19">
+        <v>6</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>137</v>
+      </c>
       <c r="F64" s="21"/>
       <c r="G64" s="22"/>
       <c r="H64" s="35"/>
@@ -3178,9 +3235,15 @@
     <row r="65" spans="1:20" ht="118.5" customHeight="1">
       <c r="A65" s="25"/>
       <c r="B65" s="26"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="C65" s="19">
+        <v>7</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>138</v>
+      </c>
       <c r="F65" s="21"/>
       <c r="G65" s="22"/>
       <c r="H65" s="35"/>
@@ -3200,9 +3263,15 @@
     <row r="66" spans="1:20" ht="118.5" customHeight="1">
       <c r="A66" s="25"/>
       <c r="B66" s="26"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
+      <c r="C66" s="40">
+        <v>8</v>
+      </c>
+      <c r="D66" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>141</v>
+      </c>
       <c r="F66" s="21"/>
       <c r="G66" s="22"/>
       <c r="H66" s="35"/>
@@ -3222,7 +3291,7 @@
     <row r="67" spans="1:20" ht="118.5" customHeight="1">
       <c r="A67" s="25"/>
       <c r="B67" s="26"/>
-      <c r="C67" s="36"/>
+      <c r="C67" s="40"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
